--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -22,7 +22,7 @@
     <t>response</t>
   </si>
   <si>
-    <t>dose_mg</t>
+    <t>dose</t>
   </si>
   <si>
     <t>patient</t>
@@ -34,7 +34,7 @@
     <t>body_weight</t>
   </si>
   <si>
-    <t>dose</t>
+    <t>dose_BW</t>
   </si>
   <si>
     <t>7.6</t>
